--- a/output/piaseczno/2022/sheets/year_2022.xlsx
+++ b/output/piaseczno/2022/sheets/year_2022.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>23.20967741935484</v>
+        <v>38.59229664662329</v>
       </c>
       <c r="C2" t="n">
-        <v>30.18709677419356</v>
+        <v>37.66284822339858</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>24.39642857142857</v>
+        <v>37.14186980698992</v>
       </c>
       <c r="C3" t="n">
-        <v>33.98214285714286</v>
+        <v>39.05327520507704</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.37741935483871</v>
+        <v>33.96816565503388</v>
       </c>
       <c r="C4" t="n">
-        <v>26.05806451612903</v>
+        <v>36.86337560938378</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.94</v>
+        <v>37.74912594593754</v>
       </c>
       <c r="C5" t="n">
-        <v>15.59333333333333</v>
+        <v>37.42654783892721</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>32.68064516129032</v>
+        <v>43.06025543751986</v>
       </c>
       <c r="C6" t="n">
-        <v>33.65483870967742</v>
+        <v>38.98473099786798</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.19333333333334</v>
+        <v>44.89178037904891</v>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>38.54518431274371</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>35.70322580645162</v>
+        <v>41.55162025905842</v>
       </c>
       <c r="C8" t="n">
-        <v>36.31612903225806</v>
+        <v>40.0019195779481</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.08387096774194</v>
+        <v>36.64159326901233</v>
       </c>
       <c r="C9" t="n">
-        <v>29.68387096774194</v>
+        <v>37.89737464495711</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.98</v>
+        <v>38.30379146770059</v>
       </c>
       <c r="C10" t="n">
-        <v>36.29666666666667</v>
+        <v>39.58841980829082</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.59032258064517</v>
+        <v>36.95062725486697</v>
       </c>
       <c r="C11" t="n">
-        <v>26.84516129032259</v>
+        <v>37.90858503502755</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.91666666666666</v>
+        <v>35.15002544517331</v>
       </c>
       <c r="C12" t="n">
-        <v>29.22000000000001</v>
+        <v>37.63371467470333</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.55806451612903</v>
+        <v>36.38926844738181</v>
       </c>
       <c r="C13" t="n">
-        <v>25.20645161290323</v>
+        <v>38.26919247406902</v>
       </c>
     </row>
   </sheetData>
